--- a/soutenances/planification/figures/calendried.xlsx
+++ b/soutenances/planification/figures/calendried.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Semaines</t>
   </si>
@@ -120,32 +120,30 @@
     <t>s16</t>
   </si>
   <si>
-    <t>s17</t>
-  </si>
-  <si>
     <t>s18</t>
   </si>
   <si>
-    <t>v0.1 : Paramètre de synthèse</t>
-  </si>
-  <si>
     <t>Rapport final et soutenances</t>
+  </si>
+  <si>
+    <t>semaines bloquées</t>
+  </si>
+  <si>
+    <t>vacances</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>partiels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -167,8 +165,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +225,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -369,142 +401,151 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,88 +859,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.2" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="53.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="52.2" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="50.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -921,17 +962,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:U9"/>
+  <dimension ref="A4:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="5" max="5" width="3.88671875" customWidth="1"/>
     <col min="6" max="6" width="3.77734375" customWidth="1"/>
@@ -939,8 +980,8 @@
     <col min="8" max="8" width="8.88671875" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" customWidth="1"/>
     <col min="10" max="10" width="8.21875" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
     <col min="13" max="13" width="8.5546875" customWidth="1"/>
     <col min="14" max="15" width="9.109375" customWidth="1"/>
     <col min="16" max="16" width="4.44140625" customWidth="1"/>
@@ -948,176 +989,216 @@
     <col min="18" max="18" width="8.6640625" customWidth="1"/>
     <col min="19" max="19" width="9.33203125" customWidth="1"/>
     <col min="20" max="20" width="8.44140625" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="6" customWidth="1"/>
+    <col min="22" max="22" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:21" ht="15" thickBot="1"/>
-    <row r="5" spans="1:21" ht="24.6" thickTop="1" thickBot="1">
-      <c r="A5" s="28" t="s">
+    <row r="4" spans="1:22" ht="15" thickBot="1"/>
+    <row r="5" spans="1:22" ht="24.6" thickTop="1" thickBot="1">
+      <c r="A5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28" t="s">
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
     </row>
-    <row r="6" spans="1:21" ht="24.6" thickTop="1" thickBot="1">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:22" ht="24.6" thickTop="1" thickBot="1">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="40" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="43" t="s">
+      <c r="L6" s="30"/>
+      <c r="M6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="P6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="43" t="s">
+      <c r="Q6" s="30"/>
+      <c r="R6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="43" t="s">
+      <c r="S6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="43" t="s">
+      <c r="T6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="43" t="s">
+      <c r="U6" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="30"/>
+    </row>
+    <row r="7" spans="1:22" ht="32.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="36"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+    </row>
+    <row r="8" spans="1:22" ht="61.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="41"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="42" t="s">
         <v>35</v>
       </c>
+      <c r="V8" s="42"/>
     </row>
-    <row r="7" spans="1:21" ht="32.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="29" t="s">
+    <row r="9" spans="1:22" ht="36" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="47"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="19"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
     </row>
-    <row r="8" spans="1:21" ht="44.4" thickTop="1" thickBot="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15" thickTop="1"/>
+    <row r="10" spans="1:22" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="E8:F8"/>
+  <mergeCells count="21">
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="Q5:V5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="L5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/soutenances/planification/figures/calendried.xlsx
+++ b/soutenances/planification/figures/calendried.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prog\korrigolo\soutenances\planification\figures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22116" windowHeight="9552" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22110" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Semaines</t>
   </si>
@@ -123,35 +128,31 @@
     <t>s18</t>
   </si>
   <si>
-    <t>Rapport final et soutenances</t>
-  </si>
-  <si>
-    <t>semaines bloquées</t>
-  </si>
-  <si>
-    <t>vacances</t>
-  </si>
-  <si>
     <t>s19</t>
   </si>
   <si>
-    <t>partiels</t>
+    <t>Rapport final et soutenance</t>
+  </si>
+  <si>
+    <t>Semaines bloquées</t>
+  </si>
+  <si>
+    <t>Partiels</t>
+  </si>
+  <si>
+    <t>Vacances</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -167,21 +168,21 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -401,152 +402,143 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,11 +546,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -600,7 +600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,9 +632,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,6 +667,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -841,34 +843,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" customWidth="1"/>
-    <col min="6" max="6" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:6" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
@@ -876,63 +878,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="49.2" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:6" ht="49.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="58.2" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:6" ht="58.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="53.4" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="53.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="52.2" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:6" ht="52.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="50.4" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:6" ht="50.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
         <v>15</v>
@@ -944,7 +946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" customHeight="1" thickTop="1"/>
+    <row r="7" spans="1:6" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="F2:F5"/>
@@ -961,227 +963,223 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:V10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" customWidth="1"/>
-    <col min="6" max="6" width="3.77734375" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" customWidth="1"/>
-    <col min="14" max="15" width="9.109375" customWidth="1"/>
-    <col min="16" max="16" width="4.44140625" customWidth="1"/>
-    <col min="17" max="17" width="4" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" customWidth="1"/>
-    <col min="20" max="20" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" customWidth="1"/>
+    <col min="7" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" customWidth="1"/>
+    <col min="17" max="17" width="1.28515625" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" customWidth="1"/>
     <col min="21" max="21" width="6" customWidth="1"/>
-    <col min="22" max="22" width="8.21875" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:22" ht="15" thickBot="1"/>
-    <row r="5" spans="1:22" ht="24.6" thickTop="1" thickBot="1">
-      <c r="A5" s="31" t="s">
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:22" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31" t="s">
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
     </row>
-    <row r="6" spans="1:22" ht="24.6" thickTop="1" thickBot="1">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:22" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="10" t="s">
+      <c r="L6" s="31"/>
+      <c r="M6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="10" t="s">
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="V6" s="30"/>
+      <c r="U6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="31"/>
     </row>
-    <row r="7" spans="1:22" ht="32.4" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:22" ht="32.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" s="36"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="34"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
     </row>
-    <row r="8" spans="1:22" ht="61.8" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:22" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33"/>
       <c r="B8" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="41"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
       <c r="T8" s="33"/>
-      <c r="U8" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="V8" s="42"/>
+      <c r="U8" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="40"/>
     </row>
-    <row r="9" spans="1:22" ht="36" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="43" t="s">
+    <row r="9" spans="1:22" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="45"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="47"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
     </row>
-    <row r="10" spans="1:22" ht="15" thickTop="1"/>
+    <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="T9:V9"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="P9:Q9"/>
@@ -1196,6 +1194,13 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="T9:V9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1203,12 +1208,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
